--- a/Tests/Integration Tests.xlsx
+++ b/Tests/Integration Tests.xlsx
@@ -236,6 +236,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="I15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Only tested text only since not a VFP binary file</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E16" authorId="0">
       <text>
         <r>
@@ -260,6 +284,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="I16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Only tested text only since not a VFP binary file</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E17" authorId="0">
       <text>
         <r>
@@ -284,6 +332,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="I17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Only tested text only since not a VFP binary file</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E18" authorId="0">
       <text>
         <r>
@@ -380,6 +452,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="I20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Only tested text only since not a VFP binary file</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E23" authorId="0">
       <text>
         <r>
@@ -404,6 +500,318 @@
         </r>
       </text>
     </comment>
+    <comment ref="G23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E24" authorId="0">
       <text>
         <r>
@@ -428,6 +836,486 @@
         </r>
       </text>
     </comment>
+    <comment ref="G24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E25" authorId="0">
       <text>
         <r>
@@ -452,6 +1340,486 @@
         </r>
       </text>
     </comment>
+    <comment ref="G25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E26" authorId="0">
       <text>
         <r>
@@ -476,6 +1844,318 @@
         </r>
       </text>
     </comment>
+    <comment ref="G26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E27" authorId="0">
       <text>
         <r>
@@ -500,6 +2180,510 @@
         </r>
       </text>
     </comment>
+    <comment ref="G27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E28" authorId="0">
       <text>
         <r>
@@ -524,6 +2708,510 @@
         </r>
       </text>
     </comment>
+    <comment ref="G28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E29" authorId="0">
       <text>
         <r>
@@ -548,6 +3236,294 @@
         </r>
       </text>
     </comment>
+    <comment ref="G29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E30" authorId="0">
       <text>
         <r>
@@ -572,6 +3548,318 @@
         </r>
       </text>
     </comment>
+    <comment ref="G30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E31" authorId="0">
       <text>
         <r>
@@ -596,6 +3884,270 @@
         </r>
       </text>
     </comment>
+    <comment ref="G31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E34" authorId="0">
       <text>
         <r>
@@ -617,6 +4169,150 @@
           </rPr>
           <t xml:space="preserve">
 Editing this item displays new icon in TreeView</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
         </r>
       </text>
     </comment>
@@ -625,7 +4321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="89">
   <si>
     <t>Application</t>
   </si>
@@ -705,12 +4401,6 @@
     <t>RenameItem</t>
   </si>
   <si>
-    <t>CanRemove</t>
-  </si>
-  <si>
-    <t>RemoveItem</t>
-  </si>
-  <si>
     <t>CanRun</t>
   </si>
   <si>
@@ -895,6 +4585,9 @@
   </si>
   <si>
     <t xml:space="preserve"> = manual test</t>
+  </si>
+  <si>
+    <t>Remove</t>
   </si>
 </sst>
 </file>
@@ -997,7 +4690,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1019,7 +4712,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1028,13 +4730,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1341,13 +5040,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB38"/>
+  <dimension ref="A1:BH38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15:J15"/>
+      <selection pane="bottomRight" activeCell="AH2" sqref="AH1:AQ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,32 +5084,38 @@
     <col min="31" max="31" width="5.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="5.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.42578125" style="8" customWidth="1"/>
-    <col min="47" max="47" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.140625" style="7"/>
-    <col min="54" max="54" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="55" max="16384" width="9.140625" style="7"/>
+    <col min="34" max="34" width="8.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6" style="8" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.28515625" style="8" customWidth="1"/>
+    <col min="40" max="40" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.28515625" style="8" customWidth="1"/>
+    <col min="42" max="42" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.28515625" style="8" customWidth="1"/>
+    <col min="44" max="44" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6" style="8" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.42578125" style="8" customWidth="1"/>
+    <col min="53" max="53" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.140625" style="7"/>
+    <col min="60" max="60" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="61" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -1422,188 +5127,214 @@
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
-      <c r="M1" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
+      <c r="M1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
     </row>
-    <row r="2" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="G2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
+      <c r="R2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
-      <c r="AB2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5" t="s">
+      <c r="AB2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AN2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5" t="s">
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="13" t="s">
         <v>35</v>
       </c>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
       <c r="AR2" s="5"/>
       <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
+      <c r="AT2" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="AU2" s="5"/>
       <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AY2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AZ2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="BA2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="BB2" s="5" t="s">
-        <v>34</v>
+      <c r="AW2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="5"/>
+      <c r="AZ2" s="5"/>
+      <c r="BA2" s="5"/>
+      <c r="BB2" s="5"/>
+      <c r="BC2" s="5"/>
+      <c r="BD2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="BG2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="BH2" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="13"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="W3" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W3" s="13"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="AB3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ3" s="13"/>
       <c r="AR3" s="5"/>
       <c r="AS3" s="5"/>
       <c r="AT3" s="5"/>
@@ -1615,174 +5346,198 @@
       <c r="AZ3" s="5"/>
       <c r="BA3" s="5"/>
       <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="5"/>
+      <c r="BE3" s="5"/>
+      <c r="BF3" s="5"/>
+      <c r="BG3" s="5"/>
+      <c r="BH3" s="5"/>
     </row>
-    <row r="4" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="H4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="O4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
+      <c r="AU4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AZ4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="BB4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AK4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AS4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AU4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX4" s="5" t="s">
+      <c r="BE4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AY4" s="5" t="s">
+      <c r="BG4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AZ4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BA4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="BB4" s="5" t="s">
-        <v>71</v>
+      <c r="BH4" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1816,16 +5571,16 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
       <c r="AR5" s="5"/>
       <c r="AS5" s="5"/>
       <c r="AT5" s="5"/>
@@ -1837,1215 +5592,2299 @@
       <c r="AZ5" s="5"/>
       <c r="BA5" s="5"/>
       <c r="BB5" s="5"/>
+      <c r="BC5" s="5"/>
+      <c r="BD5" s="5"/>
+      <c r="BE5" s="5"/>
+      <c r="BF5" s="5"/>
+      <c r="BG5" s="5"/>
+      <c r="BH5" s="5"/>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="BA6" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG6" s="8"/>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="D7" s="11"/>
       <c r="E7" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="F7" s="11"/>
       <c r="G7" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="X7" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="BA7" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG7" s="8"/>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="D8" s="11"/>
       <c r="E8" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="14"/>
+        <v>82</v>
+      </c>
+      <c r="F8" s="11"/>
       <c r="G8" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="X8" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="BA8" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG8" s="8"/>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="D9" s="11"/>
       <c r="E9" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="F9" s="11"/>
       <c r="G9" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="X9" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y9" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="BA9" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG9" s="8"/>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="D10" s="11"/>
       <c r="E10" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="14"/>
+        <v>82</v>
+      </c>
+      <c r="F10" s="11"/>
       <c r="G10" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="X10" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y10" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="BA10" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG10" s="8"/>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="D11" s="11"/>
       <c r="E11" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="X11" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y11" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="BA11" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG11" s="8"/>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U12" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V12" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W12" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X12" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y12" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="BA12" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG12" s="8"/>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="D13" s="11"/>
       <c r="E13" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="F13" s="11"/>
       <c r="G13" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="X13" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y13" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="BA13" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG13" s="8"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U14" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V14" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W14" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X14" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y14" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="BA14" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG14" s="8"/>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="D15" s="11"/>
       <c r="E15" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="F15" s="11"/>
       <c r="G15" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U15" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W15" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X15" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y15" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="BA15" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG15" s="8"/>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="D16" s="11"/>
       <c r="E16" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="F16" s="11"/>
       <c r="G16" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="X16" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y16" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="BA16" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG16" s="8"/>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="D17" s="11"/>
       <c r="E17" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="F17" s="11"/>
       <c r="G17" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="O17" s="11"/>
+      <c r="P17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="X17" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y17" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="BA17" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG17" s="8"/>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="D18" s="11"/>
       <c r="E18" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="F18" s="11"/>
       <c r="G18" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="O18" s="11"/>
+      <c r="P18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W18" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="X18" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y18" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="BA18" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="Z18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG18" s="8"/>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="D19" s="11"/>
       <c r="E19" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="14"/>
+        <v>82</v>
+      </c>
+      <c r="F19" s="11"/>
       <c r="G19" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="P19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W19" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="X19" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y19" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="BA19" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="Z19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG19" s="8"/>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="D20" s="11"/>
       <c r="E20" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="F20" s="11"/>
       <c r="G20" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="P20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W20" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="X20" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y20" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="BA20" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="Z20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG20" s="8"/>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="BA21" s="8"/>
+    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG21" s="8"/>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="D23" s="11"/>
       <c r="E23" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="M23" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="O23" s="11"/>
+      <c r="P23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W23" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="X23" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Y23" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Z23" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AA23" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB23" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AC23" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AD23" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AE23" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AF23" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG23" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="D24" s="11"/>
       <c r="E24" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="14"/>
+        <v>82</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="M24" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="O24" s="11"/>
+      <c r="P24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W24" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="X24" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y24" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="Z24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG24" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="D25" s="11"/>
       <c r="E25" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="14"/>
+        <v>82</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="M25" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="O25" s="11"/>
+      <c r="P25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W25" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="X25" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y25" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="Z25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG25" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="D26" s="11"/>
       <c r="E26" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="14"/>
+        <v>82</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="M26" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="O26" s="11"/>
+      <c r="P26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W26" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="X26" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Y26" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Z26" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AA26" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB26" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AC26" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AD26" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AE26" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AF26" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG26" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="D27" s="11"/>
       <c r="E27" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="14"/>
+        <v>82</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="M27" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="O27" s="11"/>
+      <c r="P27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W27" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="X27" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y27" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="Z27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG27" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="D28" s="11"/>
       <c r="E28" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="14"/>
+        <v>82</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="M28" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="O28" s="11"/>
+      <c r="P28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W28" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="X28" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y28" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="Z28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG28" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="D29" s="11"/>
       <c r="E29" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="14"/>
+        <v>82</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="M29" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="O29" s="11"/>
+      <c r="P29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W29" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="X29" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Y29" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Z29" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AA29" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB29" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AC29" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AD29" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AE29" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AF29" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG29" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="D30" s="11"/>
       <c r="E30" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="14"/>
+        <v>82</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="M30" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="O30" s="11"/>
+      <c r="P30" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S30" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T30" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U30" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V30" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W30" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="X30" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Y30" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Z30" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AA30" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB30" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AC30" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AD30" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AE30" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AF30" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG30" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="D31" s="11"/>
       <c r="E31" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="M31" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="O31" s="11"/>
+      <c r="P31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W31" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="X31" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Y31" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Z31" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AA31" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB31" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AC31" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AD31" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AE31" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AF31" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG31" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
@@ -3053,99 +7892,127 @@
         <v>1</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="D34" s="11"/>
       <c r="E34" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="14"/>
+        <v>82</v>
+      </c>
+      <c r="F34" s="11"/>
       <c r="G34" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="O34" s="11"/>
+      <c r="P34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W34" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="X34" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Y34" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Z34" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AA34" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB34" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AC34" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AD34" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AE34" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AF34" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG34" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>85</v>
+      <c r="A36" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B38" s="14"/>
-      <c r="C38" s="13" t="s">
-        <v>89</v>
+      <c r="B38" s="11"/>
+      <c r="C38" s="10" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="20">
+    <mergeCell ref="AH1:AQ1"/>
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="M1:W1"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="G2:L2"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="M1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AB2:AG2"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3169,135 +8036,135 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Tests/Integration Tests.xlsx
+++ b/Tests/Integration Tests.xlsx
@@ -20,6 +20,198 @@
     <author>Author</author>
   </authors>
   <commentList>
+    <comment ref="AJ6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E7" authorId="0">
       <text>
         <r>
@@ -68,6 +260,198 @@
         </r>
       </text>
     </comment>
+    <comment ref="AJ7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E8" authorId="0">
       <text>
         <r>
@@ -116,6 +500,198 @@
         </r>
       </text>
     </comment>
+    <comment ref="AJ8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E9" authorId="0">
       <text>
         <r>
@@ -140,6 +716,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AK9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E10" authorId="0">
       <text>
         <r>
@@ -164,6 +764,198 @@
         </r>
       </text>
     </comment>
+    <comment ref="AJ10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E11" authorId="0">
       <text>
         <r>
@@ -188,6 +980,390 @@
         </r>
       </text>
     </comment>
+    <comment ref="AJ11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E13" authorId="0">
       <text>
         <r>
@@ -212,6 +1388,390 @@
         </r>
       </text>
     </comment>
+    <comment ref="AJ13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E15" authorId="0">
       <text>
         <r>
@@ -260,6 +1820,198 @@
         </r>
       </text>
     </comment>
+    <comment ref="AJ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E16" authorId="0">
       <text>
         <r>
@@ -356,6 +2108,198 @@
         </r>
       </text>
     </comment>
+    <comment ref="AJ17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E18" authorId="0">
       <text>
         <r>
@@ -380,6 +2324,198 @@
         </r>
       </text>
     </comment>
+    <comment ref="AJ18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E19" authorId="0">
       <text>
         <r>
@@ -428,6 +2564,198 @@
         </r>
       </text>
     </comment>
+    <comment ref="AJ19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E20" authorId="0">
       <text>
         <r>
@@ -476,6 +2804,198 @@
         </r>
       </text>
     </comment>
+    <comment ref="AJ20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E23" authorId="0">
       <text>
         <r>
@@ -812,6 +3332,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AK23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E24" authorId="0">
       <text>
         <r>
@@ -3524,6 +6068,198 @@
         </r>
       </text>
     </comment>
+    <comment ref="AJ29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E30" authorId="0">
       <text>
         <r>
@@ -3860,6 +6596,198 @@
         </r>
       </text>
     </comment>
+    <comment ref="AJ30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E31" authorId="0">
       <text>
         <r>
@@ -4148,6 +7076,198 @@
         </r>
       </text>
     </comment>
+    <comment ref="AJ31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E34" authorId="0">
       <text>
         <r>
@@ -4293,6 +7413,198 @@
       </text>
     </comment>
     <comment ref="W34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumed this works without actually testing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4321,7 +7633,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="86">
   <si>
     <t>Application</t>
   </si>
@@ -4393,21 +7705,6 @@
   </si>
   <si>
     <t>CanInclude</t>
-  </si>
-  <si>
-    <t>CanRename</t>
-  </si>
-  <si>
-    <t>RenameItem</t>
-  </si>
-  <si>
-    <t>CanRun</t>
-  </si>
-  <si>
-    <t>RunItem</t>
-  </si>
-  <si>
-    <t>CanSetMain</t>
   </si>
   <si>
     <t>SetMain</t>
@@ -4589,12 +7886,18 @@
   <si>
     <t>Remove</t>
   </si>
+  <si>
+    <t>Rename</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4651,6 +7954,22 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4690,7 +8009,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4721,19 +8040,16 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5040,13 +8356,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH38"/>
+  <dimension ref="A1:BK38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="AF5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH2" sqref="AH1:AQ1048576"/>
+      <selection pane="bottomRight" activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5094,85 +8410,116 @@
     <col min="41" max="41" width="5.28515625" style="8" customWidth="1"/>
     <col min="42" max="42" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="5.28515625" style="8" customWidth="1"/>
-    <col min="44" max="44" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.42578125" style="8" customWidth="1"/>
-    <col min="53" max="53" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="11.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.140625" style="7"/>
-    <col min="60" max="60" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="61" max="16384" width="9.140625" style="7"/>
+    <col min="44" max="44" width="8.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="5.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6" style="8" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.140625" style="7"/>
+    <col min="63" max="63" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="64" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="15" t="s">
+    <row r="1" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="16"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="15"/>
+      <c r="AZ1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA1" s="14"/>
+      <c r="BB1" s="14"/>
+      <c r="BC1" s="12"/>
+      <c r="BD1" s="12"/>
+      <c r="BE1" s="12"/>
+      <c r="BF1" s="12"/>
+      <c r="BG1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH1" s="13"/>
+      <c r="BI1" s="13"/>
+      <c r="BJ1" s="13"/>
+      <c r="BK1" s="13"/>
     </row>
-    <row r="2" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="5"/>
       <c r="G2" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -5185,7 +8532,7 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
@@ -5197,7 +8544,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AC2" s="13"/>
       <c r="AD2" s="13"/>
@@ -5209,7 +8556,7 @@
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AM2" s="13"/>
       <c r="AN2" s="13"/>
@@ -5217,327 +8564,336 @@
       <c r="AP2" s="13"/>
       <c r="AQ2" s="13"/>
       <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="5"/>
       <c r="AU2" s="5"/>
       <c r="AV2" s="5"/>
-      <c r="AW2" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="AW2" s="12"/>
       <c r="AX2" s="5"/>
       <c r="AY2" s="5"/>
       <c r="AZ2" s="5"/>
-      <c r="BA2" s="5"/>
+      <c r="BA2" s="12"/>
       <c r="BB2" s="5"/>
       <c r="BC2" s="5"/>
-      <c r="BD2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="BE2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="BF2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="BG2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="BH2" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="BD2" s="5"/>
+      <c r="BE2" s="5"/>
+      <c r="BF2" s="5"/>
+      <c r="BG2" s="5"/>
+      <c r="BH2" s="5"/>
+      <c r="BI2" s="5"/>
+      <c r="BJ2" s="5"/>
+      <c r="BK2" s="5"/>
     </row>
-    <row r="3" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="Q3" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="S3" s="13"/>
       <c r="T3" s="13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="U3" s="13"/>
       <c r="V3" s="13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="W3" s="13"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="AB3" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AC3" s="13"/>
       <c r="AD3" s="13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AE3" s="13"/>
       <c r="AF3" s="13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG3" s="13"/>
       <c r="AH3" s="9"/>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="AL3" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AM3" s="13"/>
       <c r="AN3" s="13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AO3" s="13"/>
       <c r="AP3" s="13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AQ3" s="13"/>
       <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU3" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="5"/>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY3" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="AZ3" s="5"/>
-      <c r="BA3" s="5"/>
+      <c r="BA3" s="12"/>
       <c r="BB3" s="5"/>
       <c r="BC3" s="5"/>
       <c r="BD3" s="5"/>
       <c r="BE3" s="5"/>
       <c r="BF3" s="5"/>
-      <c r="BG3" s="5"/>
-      <c r="BH3" s="5"/>
+      <c r="BG3" s="12"/>
+      <c r="BH3" s="12"/>
+      <c r="BI3" s="12"/>
+      <c r="BJ3" s="12"/>
+      <c r="BK3" s="12"/>
     </row>
-    <row r="4" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="Q4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="T4" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH4" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AI4" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL4" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AM4" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AN4" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AO4" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AP4" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AQ4" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AR4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS4" s="5" t="s">
-        <v>25</v>
+        <v>69</v>
+      </c>
+      <c r="AS4" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="AT4" s="5" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="AU4" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AV4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AW4" s="5" t="s">
-        <v>34</v>
+        <v>69</v>
+      </c>
+      <c r="AW4" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="AX4" s="5" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="AY4" s="5" t="s">
         <v>29</v>
       </c>
       <c r="AZ4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="BA4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="BB4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="BC4" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="BD4" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="BE4" s="5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="BF4" s="5" t="s">
         <v>40</v>
       </c>
       <c r="BG4" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="BH4" s="5" t="s">
-        <v>69</v>
+        <v>34</v>
+      </c>
+      <c r="BI4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK4" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -5582,15 +8938,15 @@
       <c r="AP5" s="9"/>
       <c r="AQ5" s="9"/>
       <c r="AR5" s="5"/>
-      <c r="AS5" s="5"/>
+      <c r="AS5" s="12"/>
       <c r="AT5" s="5"/>
       <c r="AU5" s="5"/>
       <c r="AV5" s="5"/>
-      <c r="AW5" s="5"/>
+      <c r="AW5" s="12"/>
       <c r="AX5" s="5"/>
       <c r="AY5" s="5"/>
       <c r="AZ5" s="5"/>
-      <c r="BA5" s="5"/>
+      <c r="BA5" s="12"/>
       <c r="BB5" s="5"/>
       <c r="BC5" s="5"/>
       <c r="BD5" s="5"/>
@@ -5598,2421 +8954,3178 @@
       <c r="BF5" s="5"/>
       <c r="BG5" s="5"/>
       <c r="BH5" s="5"/>
+      <c r="BI5" s="5"/>
+      <c r="BJ5" s="5"/>
+      <c r="BK5" s="5"/>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z6" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AA6" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AB6" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AD6" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE6" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AF6" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG6" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG6" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ6" s="8"/>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="11"/>
       <c r="R7" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U7" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="X7" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z7" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AA7" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AB7" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AC7" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AD7" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE7" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AF7" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG7" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG7" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="AH7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ7" s="8"/>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="11"/>
       <c r="R8" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="X8" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z8" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AA8" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AB8" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AC8" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AD8" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE8" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AF8" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG8" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG8" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="AH8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ8" s="8"/>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="11"/>
       <c r="R9" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U9" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V9" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W9" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="X9" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y9" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z9" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AA9" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AB9" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AC9" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AD9" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE9" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AF9" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG9" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG9" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="AH9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ9" s="8"/>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="11"/>
       <c r="R10" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U10" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="X10" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y10" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z10" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AA10" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AB10" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AD10" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE10" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AF10" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG10" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="AH10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ10" s="8"/>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="11"/>
       <c r="R11" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U11" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W11" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="X11" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y11" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z11" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AA11" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AB11" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AC11" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AD11" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE11" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AF11" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG11" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG11" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="AH11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ11" s="8"/>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="U12" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="V12" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="W12" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="X12" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y12" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z12" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AA12" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AB12" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AC12" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AD12" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE12" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AF12" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG12" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG12" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="AH12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ12" s="8"/>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="11"/>
       <c r="R13" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U13" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V13" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W13" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="X13" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y13" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z13" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AA13" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AB13" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AC13" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AD13" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE13" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AF13" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG13" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG13" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="AH13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ13" s="8"/>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="U14" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="V14" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="W14" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="X14" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y14" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z14" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AA14" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AB14" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AC14" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AD14" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE14" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AF14" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG14" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG14" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="AH14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ14" s="8"/>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="U15" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="W15" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="X15" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y15" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z15" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AA15" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AB15" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AC15" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AD15" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE15" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AF15" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG15" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG15" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="AH15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ15" s="8"/>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="11"/>
       <c r="R16" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U16" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V16" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W16" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="X16" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y16" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z16" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AA16" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AB16" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AC16" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AD16" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE16" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AF16" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG16" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG16" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="AH16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ16" s="8"/>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U17" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V17" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W17" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="X17" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y17" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z17" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AA17" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AB17" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AC17" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AD17" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE17" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AF17" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG17" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG17" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="AH17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ17" s="8"/>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O18" s="11"/>
       <c r="P18" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q18" s="11"/>
       <c r="R18" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U18" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V18" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W18" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="X18" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y18" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z18" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AA18" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AB18" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AC18" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AD18" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE18" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AF18" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG18" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG18" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="AH18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ18" s="8"/>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q19" s="11"/>
       <c r="R19" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S19" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U19" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W19" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="X19" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y19" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z19" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AA19" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AB19" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AC19" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AD19" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE19" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AF19" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG19" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG19" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="AH19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ19" s="8"/>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q20" s="11"/>
       <c r="R20" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U20" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W20" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="X20" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y20" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z20" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AA20" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AB20" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AC20" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AD20" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE20" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AF20" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG20" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="AH20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ20" s="8"/>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="BG21" s="8"/>
+    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BJ21" s="8"/>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="11"/>
       <c r="R23" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U23" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V23" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W23" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="X23" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Y23" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Z23" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AA23" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AB23" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AC23" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AD23" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AE23" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AF23" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG23" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="AH23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ23" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O24" s="11"/>
       <c r="P24" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q24" s="11"/>
       <c r="R24" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S24" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U24" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V24" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W24" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="X24" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y24" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z24" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AA24" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AB24" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AC24" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AD24" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE24" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AF24" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG24" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="AH24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ24" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q25" s="11"/>
       <c r="R25" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U25" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V25" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W25" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="X25" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y25" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z25" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AA25" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AB25" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AC25" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AD25" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE25" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AF25" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG25" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="AH25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI25" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ25" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q26" s="11"/>
       <c r="R26" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U26" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V26" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W26" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="X26" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Y26" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Z26" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AA26" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AB26" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AC26" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AD26" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AE26" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AF26" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG26" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="AH26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI26" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ26" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O27" s="11"/>
       <c r="P27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q27" s="11"/>
       <c r="R27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="X27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y27" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AA27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AB27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AC27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AD27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AF27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="AH27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ27" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O28" s="11"/>
       <c r="P28" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q28" s="11"/>
       <c r="R28" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S28" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U28" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V28" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W28" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="X28" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y28" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z28" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AA28" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AB28" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AC28" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AD28" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE28" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AF28" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG28" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="AH28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI28" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ28" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O29" s="11"/>
       <c r="P29" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q29" s="11"/>
       <c r="R29" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S29" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U29" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V29" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W29" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="X29" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Y29" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Z29" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AA29" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AB29" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AC29" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AD29" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AE29" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AF29" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG29" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="AH29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI29" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ29" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O30" s="11"/>
       <c r="P30" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q30" s="11"/>
       <c r="R30" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S30" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="T30" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U30" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V30" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W30" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="X30" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Y30" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Z30" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AA30" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AB30" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AC30" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AD30" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AE30" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AF30" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG30" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="AH30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI30" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ30" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q31" s="11"/>
       <c r="R31" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S31" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U31" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V31" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W31" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="X31" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Y31" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Z31" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AA31" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AB31" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AC31" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AD31" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AE31" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AF31" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG31" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="AH31" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ31" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK31" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL31" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM31" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN31" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO31" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP31" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ31" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O34" s="11"/>
       <c r="P34" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q34" s="11"/>
       <c r="R34" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S34" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="T34" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U34" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V34" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W34" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="X34" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Y34" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Z34" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AA34" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AB34" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AC34" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AD34" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AE34" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AF34" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG34" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="AH34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI34" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ34" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B38" s="11"/>
       <c r="C38" s="10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="24">
+    <mergeCell ref="BG1:BK1"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="M1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH1:AQ1"/>
     <mergeCell ref="AL2:AQ2"/>
     <mergeCell ref="AL3:AM3"/>
     <mergeCell ref="AN3:AO3"/>
     <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AB2:AG2"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="M1:W1"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="G2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8036,135 +12149,135 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
